--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>j3010_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,13 +480,1284 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.715848922729492</v>
+        <v>29.11953067779541</v>
       </c>
       <c r="F2" t="n">
-        <v>38478</v>
+        <v>38479</v>
       </c>
       <c r="G2" t="n">
-        <v>20181759</v>
+        <v>20149460</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>j3010_3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1-32-4-17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>56.47751832008362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>61830</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2086195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>j3011_7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2-32-4-17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>28.35444641113281</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38468</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20161477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>j3011_7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2-32-4-17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>111.1257951259613</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96830</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1885872</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>j3012_9</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3-32-4-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>27.87022399902344</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38453</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20147241</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>j3012_9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3-32-4-17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>149.0750150680542</v>
+      </c>
+      <c r="F7" t="n">
+        <v>123862</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2145070</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>j3013_4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4-32-4-17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>28.13408803939819</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38466</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20191547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>j3013_4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4-32-4-17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>128.7242710590363</v>
+      </c>
+      <c r="F9" t="n">
+        <v>140362</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1415425</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>j3014_3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5-32-4-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>27.97964954376221</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38476</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20159111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>j3014_3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5-32-4-17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>189.0416991710663</v>
+      </c>
+      <c r="F11" t="n">
+        <v>160556</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1939664</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>j3015_5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6-32-4-17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>28.48121929168701</v>
+      </c>
+      <c r="F12" t="n">
+        <v>38480</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20137525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>j3015_5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6-32-4-17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>192.7029564380646</v>
+      </c>
+      <c r="F13" t="n">
+        <v>172528</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2332131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>j3016_8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7-32-4-17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>27.83535575866699</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38443</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20195155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>j3016_8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7-32-4-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>171.2292199134827</v>
+      </c>
+      <c r="F15" t="n">
+        <v>185023</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1356960</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>j3017_5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8-32-4-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>29.99380087852478</v>
+      </c>
+      <c r="F16" t="n">
+        <v>38476</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21983479</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>j3017_5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8-32-4-27</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>115.6164791584015</v>
+      </c>
+      <c r="F17" t="n">
+        <v>189121</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1646061</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>j3018_1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9-32-4-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>30.64782381057739</v>
+      </c>
+      <c r="F18" t="n">
+        <v>38482</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21978695</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>j3018_1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9-32-4-27</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>149.8346219062805</v>
+      </c>
+      <c r="F19" t="n">
+        <v>198839</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1720337</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>j3019_10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10-32-4-27</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>32.66990113258362</v>
+      </c>
+      <c r="F20" t="n">
+        <v>38487</v>
+      </c>
+      <c r="G20" t="n">
+        <v>21977349</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>j3019_10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10-32-4-27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>116.9482383728027</v>
+      </c>
+      <c r="F21" t="n">
+        <v>204935</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1733957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11-32-4-17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>28.51903605461121</v>
+      </c>
+      <c r="F22" t="n">
+        <v>38469</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20183156</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11-32-4-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>129.7387630939484</v>
+      </c>
+      <c r="F23" t="n">
+        <v>207326</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1480069</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>j3020_1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12-32-4-27</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>30.20373916625977</v>
+      </c>
+      <c r="F24" t="n">
+        <v>38505</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21955787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>j3020_1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12-32-4-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>145.0876350402832</v>
+      </c>
+      <c r="F25" t="n">
+        <v>212325</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2140702</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>j3021_10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>13-32-4-27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>30.11174845695496</v>
+      </c>
+      <c r="F26" t="n">
+        <v>38513</v>
+      </c>
+      <c r="G26" t="n">
+        <v>21956962</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>j3021_10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13-32-4-27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>135.2046802043915</v>
+      </c>
+      <c r="F27" t="n">
+        <v>213327</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2147381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>j3022_2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14-32-4-27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>29.79262924194336</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38493</v>
+      </c>
+      <c r="G28" t="n">
+        <v>21999078</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>j3022_2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14-32-4-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>141.0265297889709</v>
+      </c>
+      <c r="F29" t="n">
+        <v>214933</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1411135</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>j3023_6</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15-32-4-27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>31.02553534507751</v>
+      </c>
+      <c r="F30" t="n">
+        <v>38500</v>
+      </c>
+      <c r="G30" t="n">
+        <v>21983371</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>j3023_6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>15-32-4-27</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>151.0738513469696</v>
+      </c>
+      <c r="F31" t="n">
+        <v>216239</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1669237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>j3024_7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16-32-4-27</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>30.32335066795349</v>
+      </c>
+      <c r="F32" t="n">
+        <v>38475</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21991796</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>j3024_7</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16-32-4-27</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>136.2443351745605</v>
+      </c>
+      <c r="F33" t="n">
+        <v>219137</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1532921</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>j3025_3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17-32-4-27</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>30.63678002357483</v>
+      </c>
+      <c r="F34" t="n">
+        <v>38504</v>
+      </c>
+      <c r="G34" t="n">
+        <v>21970139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>j3025_3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17-32-4-27</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>227.0726232528687</v>
+      </c>
+      <c r="F35" t="n">
+        <v>221052</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1919731</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>j3026_2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18-32-4-27</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>30.74036049842834</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38461</v>
+      </c>
+      <c r="G36" t="n">
+        <v>21996637</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>j3026_2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18-32-4-27</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>172.2440605163574</v>
+      </c>
+      <c r="F37" t="n">
+        <v>223280</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1467574</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>j3027_7</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>19-32-4-27</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>30.92309546470642</v>
+      </c>
+      <c r="F38" t="n">
+        <v>38521</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21959210</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>j3027_7</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>19-32-4-27</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1431.773834228516</v>
+      </c>
+      <c r="F39" t="n">
+        <v>225614</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2117615</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>j3028_5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20-32-4-27</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>21.88135290145874</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38512</v>
+      </c>
+      <c r="G40" t="n">
+        <v>21952100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>j3028_5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20-32-4-27</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>231.4126079082489</v>
+      </c>
+      <c r="F41" t="n">
+        <v>229336</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2272999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>j3029_1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>21-32-4-27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>n_bcc</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>21.94057321548462</v>
+      </c>
+      <c r="F42" t="n">
+        <v>38495</v>
+      </c>
+      <c r="G42" t="n">
+        <v>21961765</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>j3029_1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>21-32-4-27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>old_bcc</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>155.0554625988007</v>
+      </c>
+      <c r="F43" t="n">
+        <v>232400</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2082032</v>
       </c>
     </row>
   </sheetData>

--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>j301_8</t>
+          <t>j3011_6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>n_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,60 +480,60 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.44773006439209</v>
+        <v>1.251376867294312</v>
       </c>
       <c r="F2" t="n">
-        <v>10117</v>
+        <v>11051</v>
       </c>
       <c r="G2" t="n">
-        <v>1351669</v>
+        <v>1528784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>j301_8</t>
+          <t>j3043_4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1-32-4-17</t>
+          <t>2-32-4-37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>old_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39.33833360671997</v>
+        <v>1.265207052230835</v>
       </c>
       <c r="F3" t="n">
-        <v>42100</v>
+        <v>10214</v>
       </c>
       <c r="G3" t="n">
-        <v>1479334</v>
+        <v>1532184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>j302_8</t>
+          <t>j3043_10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2-32-4-17</t>
+          <t>3-32-4-37</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>n_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -542,60 +542,60 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.076650142669678</v>
+        <v>1.246570110321045</v>
       </c>
       <c r="F4" t="n">
-        <v>10574</v>
+        <v>10281</v>
       </c>
       <c r="G4" t="n">
-        <v>1474382</v>
+        <v>1553707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>j302_8</t>
+          <t>j3018_5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2-32-4-17</t>
+          <t>4-32-4-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>old_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34.94131326675415</v>
+        <v>1.365206718444824</v>
       </c>
       <c r="F5" t="n">
-        <v>41032</v>
+        <v>11258</v>
       </c>
       <c r="G5" t="n">
-        <v>1596013</v>
+        <v>1728679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>j601_5</t>
+          <t>j304_7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3-62-4-32</t>
+          <t>5-32-4-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>n_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -604,60 +604,60 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.97873640060425</v>
+        <v>1.714076995849609</v>
       </c>
       <c r="F6" t="n">
-        <v>38312</v>
+        <v>12906</v>
       </c>
       <c r="G6" t="n">
-        <v>10182910</v>
+        <v>2080241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>j601_5</t>
+          <t>j3024_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3-62-4-32</t>
+          <t>6-32-4-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>old_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>435.5219466686249</v>
+        <v>2.127890825271606</v>
       </c>
       <c r="F7" t="n">
-        <v>149729</v>
+        <v>13937</v>
       </c>
       <c r="G7" t="n">
-        <v>10686856</v>
+        <v>2629758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>j602_5</t>
+          <t>j3037_7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4-62-4-32</t>
+          <t>7-32-4-37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>n_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -666,44 +666,695 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.1104097366333</v>
+        <v>1.38619589805603</v>
       </c>
       <c r="F8" t="n">
-        <v>42040</v>
+        <v>10814</v>
       </c>
       <c r="G8" t="n">
-        <v>12259724</v>
+        <v>1715461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>j602_5</t>
+          <t>j3047_3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4-62-4-32</t>
+          <t>8-32-4-37</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>old_bcc</t>
+          <t>2025_bcc</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>494.4918057918549</v>
+        <v>1.883973836898804</v>
       </c>
       <c r="F9" t="n">
-        <v>164982</v>
+        <v>12333</v>
       </c>
       <c r="G9" t="n">
-        <v>12828448</v>
+        <v>2230862</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>j3015_1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9-32-4-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1.033246994018555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9976</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1253656</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>j3020_4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10-32-4-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1.339464902877808</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11002</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1645655</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>j309_3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11-32-4-17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.238374948501587</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10985</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1509955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>j3029_7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12-32-4-27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.2134850025177</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10473</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1492293</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>j3019_1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13-32-4-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9712021350860596</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9410</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1204157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>j3010_2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14-32-4-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.207412958145142</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10837</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1474607</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>j3036_3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15-32-4-37</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.298239946365356</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10482</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1612557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>j305_3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16-32-4-17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1.428470849990845</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11657</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1697972</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>j3025_7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17-32-4-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.70687198638916</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12271</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2044074</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>j3014_5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18-32-4-17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9527671337127686</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9454</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1123322</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>j3046_7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19-32-4-37</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1.246300935745239</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10084</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1492256</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>j3021_10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20-32-4-27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1.590317010879517</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12004</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1958023</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>j3032_4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21-32-4-27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.765562057495117</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12687</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2176454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>j3031_10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22-32-4-27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.509092092514038</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11458</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1787185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>j308_7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23-32-4-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1.121444940567017</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10378</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1352595</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>j3028_3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24-32-4-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9053230285644531</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8952</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1089970</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>j301_4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25-32-4-17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.644852876663208</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12166</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1854057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>j3035_6</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26-32-4-37</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.469572067260742</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11013</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1781247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>j306_6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27-32-4-17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8993897438049316</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9252</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1076222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>j3026_2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28-32-4-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.1473548412323</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9793</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1309609</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>j3013_7</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29-32-4-17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1.142584800720215</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10505</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1387673</v>
       </c>
     </row>
   </sheetData>

--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -1,111 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github for Lab\RCPSP_SAT-Encoding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Clauses</t>
-  </si>
-  <si>
-    <t>j3011_6</t>
-  </si>
-  <si>
-    <t>1-32-4-17</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>j3043_4</t>
-  </si>
-  <si>
-    <t>2-32-4-37</t>
-  </si>
-  <si>
-    <t>j3043_10</t>
-  </si>
-  <si>
-    <t>3-32-4-37</t>
-  </si>
-  <si>
-    <t>j3018_5</t>
-  </si>
-  <si>
-    <t>4-32-4-27</t>
-  </si>
-  <si>
-    <t>j304_7</t>
-  </si>
-  <si>
-    <t>5-32-4-17</t>
-  </si>
-  <si>
-    <t>j3024_3</t>
-  </si>
-  <si>
-    <t>6-32-4-27</t>
-  </si>
-  <si>
-    <t>j3037_7</t>
-  </si>
-  <si>
-    <t>7-32-4-37</t>
-  </si>
-  <si>
-    <t>bcc_pblib</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,197 +408,1170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1.189911842346191</v>
-      </c>
-      <c r="F2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Problem</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Clauses</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>j3011_6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1-32-4-17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.188727140426636</v>
+      </c>
+      <c r="F2" t="n">
         <v>11051</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1528784</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1.2110641002655029</v>
-      </c>
-      <c r="F3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>j3043_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2-32-4-37</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.272963047027588</v>
+      </c>
+      <c r="F3" t="n">
         <v>10214</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1532184</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1.231564998626709</v>
-      </c>
-      <c r="F4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>j3043_10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3-32-4-37</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.28541898727417</v>
+      </c>
+      <c r="F4" t="n">
         <v>10281</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1553707</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1.420113086700439</v>
-      </c>
-      <c r="F5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>j3018_5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4-32-4-27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.362025022506714</v>
+      </c>
+      <c r="F5" t="n">
         <v>11258</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1728679</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>1.6686699390411379</v>
-      </c>
-      <c r="F6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>j304_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5-32-4-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1.64703369140625</v>
+      </c>
+      <c r="F6" t="n">
         <v>12906</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>2080241</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2.0475180149078369</v>
-      </c>
-      <c r="F7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>j3024_3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6-32-4-27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2.130586862564087</v>
+      </c>
+      <c r="F7" t="n">
         <v>13937</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>2629758</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1.36073899269104</v>
-      </c>
-      <c r="F8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>j3037_7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7-32-4-37</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1.396528005599976</v>
+      </c>
+      <c r="F8" t="n">
         <v>10814</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1715461</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>j3047_3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8-32-4-37</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1.773409843444824</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2230862</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>j3015_1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9-32-4-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1.049579858779907</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9976</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1253656</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>j3020_4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10-32-4-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1.331147909164429</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11002</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1645655</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>j309_3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11-32-4-17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.204982042312622</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10985</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1509955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>j3029_7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12-32-4-27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.173589944839478</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10473</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1492293</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>j3019_1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13-32-4-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9886767864227295</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9410</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1204157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>j3010_2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14-32-4-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.17146110534668</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10837</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1474607</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>j3036_3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15-32-4-37</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.245037078857422</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10482</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1612557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>j305_3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16-32-4-17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1.346490144729614</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11657</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1697972</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>j3025_7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17-32-4-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.621678829193115</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12271</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2044074</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>j3014_5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18-32-4-17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8899941444396973</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9454</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1123322</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>j3046_7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19-32-4-37</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1.198632001876831</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10084</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1492256</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>j3021_10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20-32-4-27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1.534299850463867</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12004</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1958023</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>j3032_4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21-32-4-27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.758377075195312</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12687</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2176454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>j3031_10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22-32-4-27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.404315948486328</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11458</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1787185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>j308_7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23-32-4-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1.097090005874634</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10378</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1352595</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>j3028_3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24-32-4-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.882396936416626</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8952</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1089970</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>j301_4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25-32-4-17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.494806051254272</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12166</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1854057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>j3035_6</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26-32-4-37</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.405243158340454</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11013</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1781247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>j306_6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27-32-4-17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8853640556335449</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9252</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1076222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>j3026_2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28-32-4-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.041311979293823</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9793</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1309609</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>j3013_7</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29-32-4-17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1.182133674621582</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10505</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1387673</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>j3041_5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30-32-4-37</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2.216314792633057</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13403</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2628239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>j3048_6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31-32-4-37</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1.512449979782104</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11210</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1844981</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>j3031_1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>32-32-4-27</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1.102067947387695</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9596</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1255736</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>j3038_2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>33-32-4-37</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1.411343097686768</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10875</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1737054</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>j302_1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>34-32-4-17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1.011868953704834</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9849</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1219867</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>j3022_5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>35-32-4-27</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1.172039985656738</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10284</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1437921</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>j306_10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>36-32-4-17</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025_bcc</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1.587898969650269</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12424</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1934138</v>
       </c>
     </row>
   </sheetData>

--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,12 +25,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,11 +51,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,83 +423,1162 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="14.08984375" customWidth="1" style="2" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>File Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Problem</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Clauses</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>j3011_6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1-32-4-17</t>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>j301_8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025_bcc</t>
+          <t>32-4-17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SAT</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1.241827964782715</v>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>11051</v>
+        <v>141.245</v>
       </c>
       <c r="G2" t="n">
-        <v>1528784</v>
+        <v>10332</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3308492</v>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>dataset cũ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>174.121</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10794</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1304815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>j301_7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36263</v>
+      </c>
+      <c r="H4" t="n">
+        <v>700925</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>j302_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="G5" t="n">
+        <v>38298</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1042651</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>j301_7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36263</v>
+      </c>
+      <c r="H6" t="n">
+        <v>700925</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>j302_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38298</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1042651</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>j301_7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36263</v>
+      </c>
+      <c r="H8" t="n">
+        <v>700925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>j302_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="G9" t="n">
+        <v>38298</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1042651</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>j301_7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36263</v>
+      </c>
+      <c r="H10" t="n">
+        <v>700925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>j302_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38298</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1042651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>j301_7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36263</v>
+      </c>
+      <c r="H12" t="n">
+        <v>700925</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>j302_2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.562</v>
+      </c>
+      <c r="G13" t="n">
+        <v>38298</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1042651</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>j301_7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5.337</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9738</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1036623</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>dataset mới</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>j302_2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>106.498</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11916</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1548848</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>75.639</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10332</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3308492</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>180.077</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10794</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1304815</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="G18" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H18" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="G19" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H19" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="G20" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H20" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="G21" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H21" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="G22" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H22" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="G23" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H23" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="G24" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H24" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G25" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H25" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G26" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.919</v>
+      </c>
+      <c r="G27" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H27" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.984</v>
+      </c>
+      <c r="G28" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H28" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="G29" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H29" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G30" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H30" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="G31" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H31" t="n">
+        <v>858172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>j301_8</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4.409</v>
+      </c>
+      <c r="G32" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H32" t="n">
+        <v>788685</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>j302_8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>34984</v>
+      </c>
+      <c r="H33" t="n">
+        <v>858172</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I14:I25"/>
+    <mergeCell ref="I2:I13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -51,13 +51,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,15 +424,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="14.08984375" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.08984375" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,7 +481,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>j301_8</t>
         </is>
@@ -509,7 +510,7 @@
       <c r="H2" t="n">
         <v>3308492</v>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>dataset cũ</t>
         </is>
@@ -922,7 +923,7 @@
       <c r="H14" t="n">
         <v>1036623</v>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>dataset mới</t>
         </is>
@@ -966,7 +967,7 @@
       <c r="A16" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>j301_8</t>
         </is>
@@ -1308,7 +1309,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>j301_8</t>
+          <t>j3010_1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1318,31 +1319,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>bdd_bdd</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>499.251</v>
       </c>
       <c r="G26" t="n">
-        <v>36473</v>
+        <v>10794</v>
       </c>
       <c r="H26" t="n">
-        <v>788685</v>
+        <v>6116247</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>test pow</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>j302_8</t>
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>j3010_1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1352,22 +1358,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>bdd_bdd</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.919</v>
+        <v>409.616</v>
       </c>
       <c r="G27" t="n">
-        <v>34984</v>
+        <v>10794</v>
       </c>
       <c r="H27" t="n">
-        <v>858172</v>
+        <v>6116247</v>
       </c>
     </row>
     <row r="28">
@@ -1376,7 +1382,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>j301_8</t>
+          <t>j3010_1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1386,31 +1392,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>bdd_card</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.984</v>
+        <v>1191.663</v>
       </c>
       <c r="G28" t="n">
-        <v>36473</v>
+        <v>10794</v>
       </c>
       <c r="H28" t="n">
-        <v>788685</v>
+        <v>6116247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>j302_8</t>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>j3010_10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1420,31 +1426,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>bdd_card</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.079</v>
+        <v>2784.128</v>
       </c>
       <c r="G29" t="n">
-        <v>34984</v>
+        <v>10332</v>
       </c>
       <c r="H29" t="n">
-        <v>858172</v>
+        <v>7782992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>j301_8</t>
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>j3010_2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1454,31 +1460,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>card_bdd</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.99</v>
+        <v>106.798</v>
       </c>
       <c r="G30" t="n">
-        <v>36473</v>
+        <v>10794</v>
       </c>
       <c r="H30" t="n">
-        <v>788685</v>
+        <v>3512255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>j302_8</t>
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>j3010_3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1488,31 +1494,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>card_bdd</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.071</v>
+        <v>64.22799999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>34984</v>
+        <v>12180</v>
       </c>
       <c r="H31" t="n">
-        <v>858172</v>
+        <v>3989186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>j301_8</t>
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>j3010_4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1522,62 +1528,471 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>card_card</t>
+          <t>powerset</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.409</v>
+        <v>185.511</v>
       </c>
       <c r="G32" t="n">
-        <v>36473</v>
+        <v>12378</v>
       </c>
       <c r="H32" t="n">
-        <v>788685</v>
+        <v>4645511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>j3010_5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>74.72799999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10728</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3415696</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>j3010_6</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9606</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1733051</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>j3010_7</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>241.267</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12378</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5265911</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>j3010_8</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>26.985</v>
+      </c>
+      <c r="G36" t="n">
+        <v>11586</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2762527</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>j3010_9</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>381.703</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10002</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5900671</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>j3011_1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10596</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2807388</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>j3011_10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>101.347</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10002</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3750479</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>j3011_2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>130.747</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13104</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4212264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>j3011_3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>503.934</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12180</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8181286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>j3011_4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>324.757</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12576</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6954914</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>j3011_5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>46.805</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11388</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2858510</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>j3010_10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="G44" t="n">
+        <v>47097</v>
+      </c>
+      <c r="H44" t="n">
+        <v>788423</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>j302_8</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>32-4-17</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>card_card</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>unsat</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="G33" t="n">
-        <v>34984</v>
-      </c>
-      <c r="H33" t="n">
-        <v>858172</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>239.085</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10794</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1304815</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I14:I25"/>
     <mergeCell ref="I2:I13"/>
+    <mergeCell ref="I26:I43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>j3014_5</t>
+          <t>j309_9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -479,158 +479,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>powerset</t>
+          <t>bdd_bdd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.375</v>
+        <v>0.852</v>
       </c>
       <c r="G2" t="n">
-        <v>9408</v>
+        <v>254851</v>
       </c>
       <c r="H2" t="n">
-        <v>963289</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>j3012_3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>32-4-17</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>powerset</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>unsat</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9738</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1031067</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>j3030_5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>32-4-27</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>powerset</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>unsat</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11256</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1372183</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>j3016_4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>32-4-17</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>powerset</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>unsat</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10134</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1115329</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>j309_9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>32-4-17</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>powerset</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.372</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10096</v>
-      </c>
-      <c r="H6" t="n">
-        <v>859799</v>
+        <v>1078283</v>
       </c>
     </row>
   </sheetData>

--- a/bcc.xlsx
+++ b/bcc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,856 @@
         <v>1078283</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.396</v>
+      </c>
+      <c r="G3" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1075155</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.549</v>
+      </c>
+      <c r="G4" t="n">
+        <v>253635</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1078963</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="G5" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1075155</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="G6" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1075155</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="G7" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1075155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10096</v>
+      </c>
+      <c r="H8" t="n">
+        <v>859799</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>powerset</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5.697</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8880</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1152929</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41551</v>
+      </c>
+      <c r="H10" t="n">
+        <v>615643</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="G11" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="G12" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="G13" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="G14" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G15" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="G16" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="G17" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="G18" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>bdd_nsc</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>bdd_nsc</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="G20" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>bdd_nsc</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="G21" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>bdd_bdd</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G22" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1078283</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>bdd_card</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G23" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1078283</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>card_bdd</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G24" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1078283</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>card_card</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G25" t="n">
+        <v>254851</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1078283</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bdd_nsc</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G26" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>j309_9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>32-4-17</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>card_nsc</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G27" t="n">
+        <v>444797</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1437387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
